--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61286246-520A-47F6-8F4B-B41DF235AF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462AEB9E-E15C-42E2-B918-7326F912D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23280" yWindow="2475" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart3" sheetId="4" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Start</t>
   </si>
@@ -69,15 +72,26 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Potential $</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,16 +117,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,7 +423,1181 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DAVE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44487.838217592594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44487.914756944447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44488.318136574075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44488.913645833331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44488.938252314816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7296-4098-BA33-37CA0FF1129F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DAVE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>End</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44487.876793981479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44487.953483796293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44488.33662037037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44488.924270833333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44488.958506944444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7296-4098-BA33-37CA0FF1129F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DAVE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8576388884393964E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8726851846149657E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8483796295186039E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0625000002619345E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.025462962774327E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7296-4098-BA33-37CA0FF1129F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="886217440"/>
+        <c:axId val="886219104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="886217440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886219104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="886219104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886217440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DAVE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44487.838217592594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44487.914756944447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44488.318136574075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44488.913645833331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44488.938252314816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BD1-423C-8FB0-EAE6B7F2E94F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DAVE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>End</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44487.876793981479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44487.953483796293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44488.33662037037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44488.924270833333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44488.958506944444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BD1-423C-8FB0-EAE6B7F2E94F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DAVE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8576388884393964E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8726851846149657E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8483796295186039E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0625000002619345E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.025462962774327E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8BD1-423C-8FB0-EAE6B7F2E94F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1180332720"/>
+        <c:axId val="1180329808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1180332720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180329808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1180329808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180332720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1288524208"/>
+        <c:axId val="1288513808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1288524208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1288513808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1288513808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1288524208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -948,11 +2140,1553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C4017AD2-6D50-4A9D-BBC0-F0137F823EB6}">
   <sheetPr/>
   <sheetViews>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3425983A-2F43-489E-804F-46ECA97580A7}">
+  <sheetPr/>
+  <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A878D189-6C54-49C4-8308-19C6F80A96EC}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="140" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2B60084F-8B04-4347-824E-8B1D4CE93434}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -963,13 +3697,112 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8663836" cy="6289110"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69D966E-BD57-446F-B662-D29C8922DD1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8667750" cy="6293304"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69D966E-BD57-446F-B662-D29C8922DD1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BC55E5-3CAE-412D-BD09-829E87CC4A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8667750" cy="6293304"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3AE39AF-1587-4040-BD52-937C632A871F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8663836" cy="6289110"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651F3396-1B73-4C0A-BF02-385DB345BEB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,10 +4088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,9 +4102,10 @@
     <col min="10" max="10" width="4.28515625" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1284,8 +4118,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1312,14 +4149,18 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>9.578703702572966E-2</v>
+        <v>0.12666666665609227</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.54782551132037582</v>
+        <v>0.4972737186244956</v>
+      </c>
+      <c r="N2" s="5">
+        <f>$N$4*M2</f>
+        <v>994.54743724899117</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44487.838217592594</v>
       </c>
@@ -1348,14 +4189,18 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(G:G)</f>
-        <v>7.9062500000873115E-2</v>
+        <v>0.12805555555678438</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M4" si="0">L3/$L$4</f>
-        <v>0.45217448867962412</v>
+        <f t="shared" ref="M3" si="0">L3/$L$4</f>
+        <v>0.50272628137550435</v>
+      </c>
+      <c r="N3" s="5">
+        <f>$N$4*M3</f>
+        <v>1005.4525627510087</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44487.914756944447</v>
       </c>
@@ -1384,11 +4229,14 @@
       </c>
       <c r="L4" s="2">
         <f>SUM(L2:L3)</f>
-        <v>0.17484953702660277</v>
+        <v>0.25472222221287666</v>
       </c>
       <c r="M4" s="3"/>
+      <c r="N4" s="5">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44488.318136574075</v>
       </c>
@@ -1399,21 +4247,53 @@
         <f>B5-A5</f>
         <v>1.8483796295186039E-2</v>
       </c>
+      <c r="E5" s="1">
+        <v>44488.913668981484</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44488.96266203704</v>
+      </c>
+      <c r="G5" s="2">
+        <f>F5-E5</f>
+        <v>4.8993055555911269E-2</v>
+      </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
+      <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44488.913645833331</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44488.924270833333</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B6-A6</f>
+        <v>1.0625000002619345E-2</v>
+      </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44488.938252314816</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44488.958506944444</v>
+      </c>
+      <c r="C7" s="2">
+        <f>B7-A7</f>
+        <v>2.025462962774327E-2</v>
+      </c>
       <c r="I7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
       <c r="I8" t="s">
         <v>5</v>
       </c>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462AEB9E-E15C-42E2-B918-7326F912D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFF74A2-6FC0-4FDC-99A8-9887857841D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23280" yWindow="2475" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -4090,8 +4090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4153,11 +4153,11 @@
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.4972737186244956</v>
+        <v>0.40823634732870356</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>994.54743724899117</v>
+        <v>816.47269465740715</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4189,15 +4189,15 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(G:G)</f>
-        <v>0.12805555555678438</v>
+        <v>0.18361111111880746</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3" si="0">L3/$L$4</f>
-        <v>0.50272628137550435</v>
+        <v>0.59176365267129638</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1005.4525627510087</v>
+        <v>1183.5273053425929</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="L4" s="2">
         <f>SUM(L2:L3)</f>
-        <v>0.25472222221287666</v>
+        <v>0.31027777777489973</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4273,6 +4273,16 @@
         <f>B6-A6</f>
         <v>1.0625000002619345E-2</v>
       </c>
+      <c r="E6" s="1">
+        <v>44489.439583333333</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44489.474305555559</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6:G7" si="1">F6-E6</f>
+        <v>3.4722222226264421E-2</v>
+      </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
@@ -4287,6 +4297,16 @@
       <c r="C7" s="2">
         <f>B7-A7</f>
         <v>2.025462962774327E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44489.479166666664</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44489.5</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0833333335758653E-2</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFF74A2-6FC0-4FDC-99A8-9887857841D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F114627-3F7A-407F-9031-E2AD376D9C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4090,8 +4090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,15 +4149,15 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.12666666665609227</v>
+        <v>0.14255787036381662</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.40823634732870356</v>
+        <v>0.43706752774531099</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>816.47269465740715</v>
+        <v>874.13505549062199</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4193,11 +4193,11 @@
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3" si="0">L3/$L$4</f>
-        <v>0.59176365267129638</v>
+        <v>0.56293247225468901</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1183.5273053425929</v>
+        <v>1125.8649445093781</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="L4" s="2">
         <f>SUM(L2:L3)</f>
-        <v>0.31027777777489973</v>
+        <v>0.32616898148262408</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4313,7 +4313,17 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+      <c r="A8" s="1">
+        <v>44489.489594907405</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44489.505486111113</v>
+      </c>
+      <c r="C8" s="2">
+        <f>B8-A8</f>
+        <v>1.5891203707724344E-2</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="I8" t="s">
         <v>5</v>
       </c>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F114627-3F7A-407F-9031-E2AD376D9C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E031F90-C643-4835-B834-E11B85FCBC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -4088,10 +4088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,15 +4149,15 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.14255787036381662</v>
+        <v>0.20244212962279562</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.43706752774531099</v>
+        <v>0.52438914703554107</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>874.13505549062199</v>
+        <v>1048.7782940710822</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4168,7 +4168,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f>B3-A3</f>
+        <f t="shared" ref="C3:C9" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1">
@@ -4192,12 +4192,12 @@
         <v>0.18361111111880746</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3" si="0">L3/$L$4</f>
-        <v>0.56293247225468901</v>
+        <f t="shared" ref="M3" si="1">L3/$L$4</f>
+        <v>0.47561085296445899</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1125.8649445093781</v>
+        <v>951.22170592891803</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4208,7 +4208,7 @@
         <v>44487.953483796293</v>
       </c>
       <c r="C4" s="2">
-        <f>B4-A4</f>
+        <f t="shared" si="0"/>
         <v>3.8726851846149657E-2</v>
       </c>
       <c r="E4" s="1">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="L4" s="2">
         <f>SUM(L2:L3)</f>
-        <v>0.32616898148262408</v>
+        <v>0.38605324074160308</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4244,7 +4244,7 @@
         <v>44488.33662037037</v>
       </c>
       <c r="C5" s="2">
-        <f>B5-A5</f>
+        <f t="shared" si="0"/>
         <v>1.8483796295186039E-2</v>
       </c>
       <c r="E5" s="1">
@@ -4270,7 +4270,7 @@
         <v>44488.924270833333</v>
       </c>
       <c r="C6" s="2">
-        <f>B6-A6</f>
+        <f t="shared" si="0"/>
         <v>1.0625000002619345E-2</v>
       </c>
       <c r="E6" s="1">
@@ -4280,7 +4280,7 @@
         <v>44489.474305555559</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G7" si="1">F6-E6</f>
+        <f t="shared" ref="G6:G7" si="2">F6-E6</f>
         <v>3.4722222226264421E-2</v>
       </c>
       <c r="I6" t="s">
@@ -4295,7 +4295,7 @@
         <v>44488.958506944444</v>
       </c>
       <c r="C7" s="2">
-        <f>B7-A7</f>
+        <f t="shared" si="0"/>
         <v>2.025462962774327E-2</v>
       </c>
       <c r="E7" s="1">
@@ -4305,7 +4305,7 @@
         <v>44489.5</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0833333335758653E-2</v>
       </c>
       <c r="I7" t="s">
@@ -4320,12 +4320,24 @@
         <v>44489.505486111113</v>
       </c>
       <c r="C8" s="2">
-        <f>B8-A8</f>
+        <f t="shared" si="0"/>
         <v>1.5891203707724344E-2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="I8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44489.656793981485</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44489.716678240744</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9884259258979E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E031F90-C643-4835-B834-E11B85FCBC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242FFC75-1CE0-46F6-82BB-F9BF8958E207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -4088,10 +4088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4340,6 +4340,11 @@
         <v>5.9884259258979E-2</v>
       </c>
     </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44490.840902777774</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242FFC75-1CE0-46F6-82BB-F9BF8958E207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38270F11-41C3-4EEB-BFAC-C6FCCC0C81DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4091,7 +4091,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,15 +4149,15 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.20244212962279562</v>
+        <v>0.25336805554979946</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.52438914703554107</v>
+        <v>0.57981724273355784</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>1048.7782940710822</v>
+        <v>1159.6344854671156</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4168,7 +4168,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C9" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C10" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1">
@@ -4193,11 +4193,11 @@
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3" si="1">L3/$L$4</f>
-        <v>0.47561085296445899</v>
+        <v>0.42018275726644222</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>951.22170592891803</v>
+        <v>840.36551453288439</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="L4" s="2">
         <f>SUM(L2:L3)</f>
-        <v>0.38605324074160308</v>
+        <v>0.43697916666860692</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4323,7 +4323,12 @@
         <f t="shared" si="0"/>
         <v>1.5891203707724344E-2</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>44490.25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44490.451388888891</v>
+      </c>
       <c r="I8" t="s">
         <v>5</v>
       </c>
@@ -4343,6 +4348,13 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44490.840902777774</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44490.891828703701</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0925925927003846E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38270F11-41C3-4EEB-BFAC-C6FCCC0C81DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC29785-78F4-435B-BC0D-462674723DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22560" yWindow="3240" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -121,13 +121,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -230,12 +231,6 @@
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>44487.863518518519</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44487.878449074073</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -246,7 +241,7 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4930555553291924E-2</c:v>
+                  <c:v>0.98263888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -270,7 +265,7 @@
         <c:axId val="532157712"/>
         <c:axId val="532168112"/>
       </c:barChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="532157712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -317,9 +312,10 @@
         <c:crossAx val="532168112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="532168112"/>
         <c:scaling>
@@ -4088,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4101,6 +4097,7 @@
     <col min="9" max="9" width="2" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
@@ -4149,15 +4146,15 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.25336805554979946</v>
+        <v>0.27883101852057735</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.57981724273355784</v>
+        <v>0.22103659935351144</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>1159.6344854671156</v>
+        <v>442.07319870702287</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4168,18 +4165,13 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C10" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C12" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
-      <c r="E3" s="1">
-        <v>44487.863518518519</v>
-      </c>
-      <c r="F3" s="1">
-        <v>44487.878449074073</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="2">
-        <f>F3-E3</f>
-        <v>1.4930555553291924E-2</v>
+        <v>0.98263888888888884</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -4189,15 +4181,15 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(G:G)</f>
-        <v>0.18361111111880746</v>
+        <v>0.98263888888888884</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3" si="1">L3/$L$4</f>
-        <v>0.42018275726644222</v>
+        <v>0.77896340064648861</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>840.36551453288439</v>
+        <v>1557.9268012929772</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4211,25 +4203,18 @@
         <f t="shared" si="0"/>
         <v>3.8726851846149657E-2</v>
       </c>
-      <c r="E4" s="1">
-        <v>44487.906898148147</v>
-      </c>
-      <c r="F4" s="1">
-        <v>44487.971030092594</v>
-      </c>
-      <c r="G4" s="2">
-        <f>F4-E4</f>
-        <v>6.4131944447581191E-2</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
       <c r="I4" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>0.43697916666860692</v>
+        <v>1.2614699074094662</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4247,16 +4232,9 @@
         <f t="shared" si="0"/>
         <v>1.8483796295186039E-2</v>
       </c>
-      <c r="E5" s="1">
-        <v>44488.913668981484</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44488.96266203704</v>
-      </c>
-      <c r="G5" s="2">
-        <f>F5-E5</f>
-        <v>4.8993055555911269E-2</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
       <c r="I5" t="s">
         <v>5</v>
       </c>
@@ -4273,16 +4251,9 @@
         <f t="shared" si="0"/>
         <v>1.0625000002619345E-2</v>
       </c>
-      <c r="E6" s="1">
-        <v>44489.439583333333</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44489.474305555559</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" ref="G6:G7" si="2">F6-E6</f>
-        <v>3.4722222226264421E-2</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
       <c r="I6" t="s">
         <v>5</v>
       </c>
@@ -4298,16 +4269,9 @@
         <f t="shared" si="0"/>
         <v>2.025462962774327E-2</v>
       </c>
-      <c r="E7" s="1">
-        <v>44489.479166666664</v>
-      </c>
-      <c r="F7" s="1">
-        <v>44489.5</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="2"/>
-        <v>2.0833333335758653E-2</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
       <c r="I7" t="s">
         <v>5</v>
       </c>
@@ -4323,12 +4287,8 @@
         <f t="shared" si="0"/>
         <v>1.5891203707724344E-2</v>
       </c>
-      <c r="E8" s="1">
-        <v>44490.25</v>
-      </c>
-      <c r="F8" s="1">
-        <v>44490.451388888891</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="I8" t="s">
         <v>5</v>
       </c>
@@ -4355,6 +4315,30 @@
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5.0925925927003846E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44490.923622685186</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44490.944548611114</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0925925928167999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44490.946701388886</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44490.951238425929</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5370370426098816E-3</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC29785-78F4-435B-BC0D-462674723DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F2422-5448-4670-A68E-14633790F2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22560" yWindow="3240" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -4084,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,15 +4146,15 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.27883101852057735</v>
+        <v>0.37858796296495711</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.22103659935351144</v>
+        <v>0.27812260862277338</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>442.07319870702287</v>
+        <v>556.24521724554677</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4165,7 +4165,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C12" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C15" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -4185,11 +4185,11 @@
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3" si="1">L3/$L$4</f>
-        <v>0.77896340064648861</v>
+        <v>0.72187739137722662</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1557.9268012929772</v>
+        <v>1443.7547827544533</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>1.2614699074094662</v>
+        <v>1.361226851853846</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4339,6 +4339,42 @@
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>4.5370370426098816E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44491.340740740743</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44491.39135416667</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0613425926712807E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44491.389224537037</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44491.406956018516</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7731481479131617E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44491.473657407405</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44491.505069444444</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1412037038535345E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F2422-5448-4670-A68E-14633790F2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DD0398-2649-4C24-BFD8-4D84FB4941DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4084,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,15 +4146,15 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.37858796296495711</v>
+        <v>0.41876157407386927</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.27812260862277338</v>
+        <v>0.29881649474308597</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>556.24521724554677</v>
+        <v>597.63298948617194</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4165,7 +4165,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C15" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C16" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -4185,11 +4185,11 @@
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3" si="1">L3/$L$4</f>
-        <v>0.72187739137722662</v>
+        <v>0.70118350525691397</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1443.7547827544533</v>
+        <v>1402.3670105138281</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>1.361226851853846</v>
+        <v>1.4014004629627581</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4375,6 +4375,18 @@
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>3.1412037038535345E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44491.548900462964</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44491.589074074072</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0173611108912155E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DD0398-2649-4C24-BFD8-4D84FB4941DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC595C-E27A-43EC-885C-AB91DD951A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21525" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -4084,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,15 +4146,15 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.41876157407386927</v>
+        <v>0.48531249999359716</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.29881649474308597</v>
+        <v>0.33060529365557073</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>597.63298948617194</v>
+        <v>661.21058731114147</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4165,7 +4165,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C16" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C17" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -4185,11 +4185,11 @@
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3" si="1">L3/$L$4</f>
-        <v>0.70118350525691397</v>
+        <v>0.66939470634442932</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1402.3670105138281</v>
+        <v>1338.7894126888586</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>1.4014004629627581</v>
+        <v>1.467951388882486</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4387,6 +4387,18 @@
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>4.0173611108912155E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44491.607708333337</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44491.674259259256</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6550925919727888E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC595C-E27A-43EC-885C-AB91DD951A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ECB629B-E308-4463-9D3F-767274734BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21525" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4084,10 +4085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,15 +4147,15 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.48531249999359716</v>
+        <v>0.55534722222364508</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.33060529365557073</v>
+        <v>0.36108728044489508</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>661.21058731114147</v>
+        <v>722.1745608897902</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4165,7 +4166,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C17" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C20" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -4184,12 +4185,12 @@
         <v>0.98263888888888884</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3" si="1">L3/$L$4</f>
-        <v>0.66939470634442932</v>
+        <f>L3/$L$4</f>
+        <v>0.63891271955510498</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1338.7894126888586</v>
+        <v>1277.82543911021</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4214,7 +4215,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>1.467951388882486</v>
+        <v>1.5379861111125339</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4394,11 +4395,47 @@
         <v>44491.607708333337</v>
       </c>
       <c r="B17" s="1">
-        <v>44491.674259259256</v>
+        <v>44491.694328703707</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>6.6550925919727888E-2</v>
+        <v>8.6620370369928423E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44491.758506944447</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44491.768206018518</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6990740712499246E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44491.781712962962</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44491.7891087963</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3958333377959207E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44491.843877314815</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44491.876747685186</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2870370370801538E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ECB629B-E308-4463-9D3F-767274734BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBE6738-02E0-47C0-8757-3B13EAE7F9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4085,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4147,15 +4146,15 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.55534722222364508</v>
+        <v>0.69570601851592073</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.36108728044489508</v>
+        <v>0.41451909881365012</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>722.1745608897902</v>
+        <v>829.03819762730029</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4166,7 +4165,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C20" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C22" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -4186,11 +4185,11 @@
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.63891271955510498</v>
+        <v>0.58548090118634988</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1277.82543911021</v>
+        <v>1170.9618023726998</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4215,7 +4214,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>1.5379861111125339</v>
+        <v>1.6783449074048096</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4436,6 +4435,30 @@
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>3.2870370370801538E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44492.820254629631</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44492.898622685185</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8368055554165039E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44492.934398148151</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44492.996388888889</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1990740738110617E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBE6738-02E0-47C0-8757-3B13EAE7F9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09485AF4-875A-4019-BDA7-8472FB87151E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Start</t>
   </si>
@@ -73,16 +73,29 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Potential $</t>
+    <t>we didn’t go</t>
+  </si>
+  <si>
+    <t>this way</t>
+  </si>
+  <si>
+    <t>^ How we're actually gonna split it I guess?</t>
+  </si>
+  <si>
+    <t>$ per hour</t>
+  </si>
+  <si>
+    <t>original split plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -129,6 +142,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -238,10 +252,10 @@
             <c:numRef>
               <c:f>Sheet1!$G$3</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.98263888888888884</c:v>
+                  <c:v>1.7173611111111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,7 +351,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:numFmt formatCode="[h]:mm:ss;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4084,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4100,9 +4114,10 @@
     <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4116,10 +4131,13 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4150,14 +4168,21 @@
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.41451909881365012</v>
+        <v>0.28830777642868577</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>829.03819762730029</v>
+        <v>576.61555285737154</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>P2/(L2*24)</f>
+        <v>59.891197657812349</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44487.838217592594</v>
       </c>
@@ -4170,8 +4195,8 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="2">
-        <v>0.98263888888888884</v>
+      <c r="G3" s="7">
+        <v>1.7173611111111109</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -4179,20 +4204,27 @@
       <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="7">
         <f>SUM(G:G)</f>
-        <v>0.98263888888888884</v>
+        <v>1.7173611111111109</v>
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.58548090118634988</v>
+        <v>0.71169222357131423</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1170.9618023726998</v>
+        <v>1423.3844471426285</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>P3/(L3*24)</f>
+        <v>24.262029923170243</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44487.914756944447</v>
       </c>
@@ -4214,14 +4246,14 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>1.6783449074048096</v>
+        <v>2.4130671296270316</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44488.318136574075</v>
       </c>
@@ -4239,8 +4271,11 @@
         <v>5</v>
       </c>
       <c r="N5" s="5"/>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44488.913645833331</v>
       </c>
@@ -4257,8 +4292,11 @@
       <c r="I6" t="s">
         <v>5</v>
       </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44488.938252314816</v>
       </c>
@@ -4275,8 +4313,11 @@
       <c r="I7" t="s">
         <v>5</v>
       </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44489.489594907405</v>
       </c>
@@ -4293,7 +4334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44489.656793981485</v>
       </c>
@@ -4305,7 +4346,7 @@
         <v>5.9884259258979E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44490.840902777774</v>
       </c>
@@ -4317,7 +4358,7 @@
         <v>5.0925925927003846E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44490.923622685186</v>
       </c>
@@ -4329,7 +4370,7 @@
         <v>2.0925925928167999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44490.946701388886</v>
       </c>
@@ -4341,7 +4382,7 @@
         <v>4.5370370426098816E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44491.340740740743</v>
       </c>
@@ -4353,7 +4394,7 @@
         <v>5.0613425926712807E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44491.389224537037</v>
       </c>
@@ -4365,7 +4406,7 @@
         <v>1.7731481479131617E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44491.473657407405</v>
       </c>
@@ -4377,7 +4418,7 @@
         <v>3.1412037038535345E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44491.548900462964</v>
       </c>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09485AF4-875A-4019-BDA7-8472FB87151E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C8EEC2-AEA6-4706-B6EF-F4E09D0A3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,7 +142,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4098,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4164,22 +4164,22 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.69570601851592073</v>
+        <v>0.74758101851330139</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.28830777642868577</v>
+        <v>0.30328542383557366</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>576.61555285737154</v>
+        <v>606.57084767114736</v>
       </c>
       <c r="P2" s="5">
         <v>1000</v>
       </c>
       <c r="Q2" s="5">
         <f>P2/(L2*24)</f>
-        <v>59.891197657812349</v>
+        <v>55.735319162501327</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4190,7 +4190,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C22" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C24" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -4210,11 +4210,11 @@
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.71169222357131423</v>
+        <v>0.69671457616442634</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1423.3844471426285</v>
+        <v>1393.4291523288528</v>
       </c>
       <c r="P3" s="5">
         <v>1000</v>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>2.4130671296270316</v>
+        <v>2.4649421296244123</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4500,6 +4500,30 @@
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>6.1990740738110617E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44493.403182870374</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44493.439270833333</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.608796295884531E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44493.470358796294</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44493.486145833333</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5787037038535345E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C8EEC2-AEA6-4706-B6EF-F4E09D0A3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8D9F9D-9D44-4EF1-B50B-C28336B7E4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4098,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4164,22 +4164,22 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.74758101851330139</v>
+        <v>0.80432870369259035</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.30328542383557366</v>
+        <v>0.31896417194959509</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>606.57084767114736</v>
+        <v>637.92834389919017</v>
       </c>
       <c r="P2" s="5">
         <v>1000</v>
       </c>
       <c r="Q2" s="5">
         <f>P2/(L2*24)</f>
-        <v>55.735319162501327</v>
+        <v>51.803033356113346</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4190,7 +4190,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C24" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C26" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -4210,11 +4210,11 @@
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.69671457616442634</v>
+        <v>0.68103582805040497</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1393.4291523288528</v>
+        <v>1362.0716561008098</v>
       </c>
       <c r="P3" s="5">
         <v>1000</v>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>2.4649421296244123</v>
+        <v>2.5216898148037012</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4524,6 +4524,30 @@
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>1.5787037038535345E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44493.477569444447</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44493.498437499999</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0868055551545694E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44493.523668981485</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44493.559548611112</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>3.587962962774327E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8D9F9D-9D44-4EF1-B50B-C28336B7E4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A965DD8-AE9E-4E77-B71A-05EC50C42C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4098,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4164,22 +4164,22 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(C:C)</f>
-        <v>0.80432870369259035</v>
+        <v>0.88734953702805797</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.31896417194959509</v>
+        <v>0.34067105982078633</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>637.92834389919017</v>
+        <v>681.34211964157271</v>
       </c>
       <c r="P2" s="5">
         <v>1000</v>
       </c>
       <c r="Q2" s="5">
         <f>P2/(L2*24)</f>
-        <v>51.803033356113346</v>
+        <v>46.956317581703061</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4190,7 +4190,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C26" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C27" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -4210,11 +4210,11 @@
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.68103582805040497</v>
+        <v>0.65932894017921362</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1362.0716561008098</v>
+        <v>1318.6578803584273</v>
       </c>
       <c r="P3" s="5">
         <v>1000</v>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>2.5216898148037012</v>
+        <v>2.6047106481391689</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4548,6 +4548,18 @@
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>3.587962962774327E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44493.59474537037</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44493.677766203706</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3020833335467614E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A965DD8-AE9E-4E77-B71A-05EC50C42C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655ED79D-DA6C-470B-81DB-8C1EA47604BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -134,14 +134,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -4098,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,24 +4161,24 @@
       <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="6">
         <f>SUM(C:C)</f>
-        <v>0.88734953702805797</v>
+        <v>1.1893749999871943</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.34067105982078633</v>
+        <v>0.40917887091504535</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>681.34211964157271</v>
+        <v>818.35774183009073</v>
       </c>
       <c r="P2" s="5">
         <v>1000</v>
       </c>
       <c r="Q2" s="5">
         <f>P2/(L2*24)</f>
-        <v>46.956317581703061</v>
+        <v>35.032404974978689</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4190,12 +4189,12 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C27" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C32" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>1.7173611111111109</v>
       </c>
       <c r="I3" t="s">
@@ -4204,17 +4203,17 @@
       <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <f>SUM(G:G)</f>
         <v>1.7173611111111109</v>
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.65932894017921362</v>
+        <v>0.59082112908495465</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1318.6578803584273</v>
+        <v>1181.6422581699094</v>
       </c>
       <c r="P3" s="5">
         <v>1000</v>
@@ -4246,7 +4245,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>2.6047106481391689</v>
+        <v>2.9067361110983052</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4560,6 +4559,78 @@
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>8.3020833335467614E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44493.715416666666</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44493.764988425923</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9571759256650694E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44493.793576388889</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44493.839120370372</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5543981483206153E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44493.881435185183</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44493.96199074074</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0555555556202307E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44494.312789351854</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44494.35125</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8460648145701271E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44494.379143518519</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44494.434583333335</v>
+      </c>
+      <c r="C32" s="2">
+        <f>B32-A32</f>
+        <v>5.5439814816054422E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44494.472638888888</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44494.50509259259</v>
+      </c>
+      <c r="C33" s="2">
+        <f>B33-A33</f>
+        <v>3.2453703701321501E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655ED79D-DA6C-470B-81DB-8C1EA47604BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F22EA-3BD3-457B-B4A3-96D63CDCC645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27630" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -4097,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,22 +4163,22 @@
       </c>
       <c r="L2" s="6">
         <f>SUM(C:C)</f>
-        <v>1.1893749999871943</v>
+        <v>1.3560185185051523</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.40917887091504535</v>
+        <v>0.4412141296955438</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>818.35774183009073</v>
+        <v>882.42825939108764</v>
       </c>
       <c r="P2" s="5">
         <v>1000</v>
       </c>
       <c r="Q2" s="5">
         <f>P2/(L2*24)</f>
-        <v>35.032404974978689</v>
+        <v>30.727210652402569</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4189,7 +4189,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C32" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C31" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -4209,11 +4209,11 @@
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.59082112908495465</v>
+        <v>0.55878587030445626</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1181.6422581699094</v>
+        <v>1117.5717406089125</v>
       </c>
       <c r="P3" s="5">
         <v>1000</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>2.9067361110983052</v>
+        <v>3.0733796296162632</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4631,6 +4631,18 @@
       <c r="C33" s="2">
         <f>B33-A33</f>
         <v>3.2453703701321501E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44494.582372685189</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44494.749016203707</v>
+      </c>
+      <c r="C34" s="2">
+        <f>B34-A34</f>
+        <v>0.166643518517958</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655ED79D-DA6C-470B-81DB-8C1EA47604BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6EAB8-F37E-4F5D-AFB1-C432BAD54620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25290" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -4097,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,22 +4163,22 @@
       </c>
       <c r="L2" s="6">
         <f>SUM(C:C)</f>
-        <v>1.1893749999871943</v>
+        <v>1.504606481474184</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.40917887091504535</v>
+        <v>0.46698374153009198</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>818.35774183009073</v>
+        <v>933.96748306018401</v>
       </c>
       <c r="P2" s="5">
         <v>1000</v>
       </c>
       <c r="Q2" s="5">
         <f>P2/(L2*24)</f>
-        <v>35.032404974978689</v>
+        <v>27.692733734499456</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4189,7 +4189,7 @@
         <v>44487.876793981479</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C32" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C31" si="0">B3-A3</f>
         <v>3.8576388884393964E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -4209,11 +4209,11 @@
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.59082112908495465</v>
+        <v>0.53301625846990808</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1181.6422581699094</v>
+        <v>1066.0325169398161</v>
       </c>
       <c r="P3" s="5">
         <v>1000</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>2.9067361110983052</v>
+        <v>3.2219675925852949</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4631,6 +4631,30 @@
       <c r="C33" s="2">
         <f>B33-A33</f>
         <v>3.2453703701321501E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44494.582372685189</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44494.749016203707</v>
+      </c>
+      <c r="C34" s="2">
+        <f>B34-A34</f>
+        <v>0.166643518517958</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44494.767789351848</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44494.916377314818</v>
+      </c>
+      <c r="C35" s="2">
+        <f>B35-A35</f>
+        <v>0.14858796296903165</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6D7FAD-2A7A-494E-8FB4-ABB6DB93D956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C304FF-1131-48F0-BB22-349AA80EEEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25290" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4099,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,22 +4163,22 @@
       </c>
       <c r="L2" s="6">
         <f>SUM(C:C)</f>
-        <v>1.504606481474184</v>
+        <v>1.514791666653764</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.46698374153009198</v>
+        <v>0.4686633865436538</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>933.96748306018401</v>
+        <v>937.32677308730763</v>
       </c>
       <c r="P2" s="5">
         <v>1000</v>
       </c>
       <c r="Q2" s="5">
         <f>P2/(L2*24)</f>
-        <v>27.692733734499456</v>
+        <v>27.506532801774661</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.53301625846990808</v>
+        <v>0.5313366134563462</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1066.0325169398161</v>
+        <v>1062.6732269126924</v>
       </c>
       <c r="P3" s="5">
         <v>1000</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>3.2219675925852949</v>
+        <v>3.2321527777648749</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4650,11 +4650,11 @@
         <v>44494.767789351848</v>
       </c>
       <c r="B35" s="1">
-        <v>44494.916377314818</v>
+        <v>44494.926562499997</v>
       </c>
       <c r="C35" s="2">
         <f>B35-A35</f>
-        <v>0.14858796296903165</v>
+        <v>0.15877314814861165</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\video-typer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\phoenix-write\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C304FF-1131-48F0-BB22-349AA80EEEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6C08F-048A-4AD3-9539-BBB31109A355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -4097,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,22 +4163,22 @@
       </c>
       <c r="L2" s="6">
         <f>SUM(C:C)</f>
-        <v>1.514791666653764</v>
+        <v>1.556539351840911</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.4686633865436538</v>
+        <v>0.47543881356655698</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>937.32677308730763</v>
+        <v>950.87762713311395</v>
       </c>
       <c r="P2" s="5">
         <v>1000</v>
       </c>
       <c r="Q2" s="5">
         <f>P2/(L2*24)</f>
-        <v>27.506532801774661</v>
+        <v>26.768784623008546</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.5313366134563462</v>
+        <v>0.52456118643344296</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1062.6732269126924</v>
+        <v>1049.1223728668858</v>
       </c>
       <c r="P3" s="5">
         <v>1000</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>3.2321527777648749</v>
+        <v>3.2739004629520219</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4655,6 +4655,18 @@
       <c r="C35" s="2">
         <f>B35-A35</f>
         <v>0.15877314814861165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44495.309039351851</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44495.350787037038</v>
+      </c>
+      <c r="C36" s="2">
+        <f>B36-A36</f>
+        <v>4.1747685187146999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\phoenix-write\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6C08F-048A-4AD3-9539-BBB31109A355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8C22E4-19A7-4772-9A4F-8868B093E57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4097,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,22 +4163,22 @@
       </c>
       <c r="L2" s="6">
         <f>SUM(C:C)</f>
-        <v>1.556539351840911</v>
+        <v>1.6290740740660112</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.47543881356655698</v>
+        <v>0.48680879321431908</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>950.87762713311395</v>
+        <v>973.61758642863811</v>
       </c>
       <c r="P2" s="5">
         <v>1000</v>
       </c>
       <c r="Q2" s="5">
         <f>P2/(L2*24)</f>
-        <v>26.768784623008546</v>
+        <v>25.576901216450334</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.52456118643344296</v>
+        <v>0.51319120678568086</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1049.1223728668858</v>
+        <v>1026.3824135713617</v>
       </c>
       <c r="P3" s="5">
         <v>1000</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>3.2739004629520219</v>
+        <v>3.3464351851771221</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4667,6 +4667,30 @@
       <c r="C36" s="2">
         <f>B36-A36</f>
         <v>4.1747685187146999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44495.375115740739</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44495.417361111111</v>
+      </c>
+      <c r="C37" s="2">
+        <f>B37-A37</f>
+        <v>4.224537037225673E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44495.474594907406</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44495.504884259259</v>
+      </c>
+      <c r="C38" s="2">
+        <f>B38-A38</f>
+        <v>3.0289351852843538E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\phoenix-write\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8C22E4-19A7-4772-9A4F-8868B093E57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35258F5-5A40-4CA1-93B0-13EC54E88DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4097,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,22 +4163,22 @@
       </c>
       <c r="L2" s="6">
         <f>SUM(C:C)</f>
-        <v>1.6290740740660112</v>
+        <v>1.6630902777687879</v>
       </c>
       <c r="M2" s="3">
         <f>L2/$L$4</f>
-        <v>0.48680879321431908</v>
+        <v>0.49197284221852022</v>
       </c>
       <c r="N2" s="5">
         <f>$N$4*M2</f>
-        <v>973.61758642863811</v>
+        <v>983.94568443704043</v>
       </c>
       <c r="P2" s="5">
         <v>1000</v>
       </c>
       <c r="Q2" s="5">
         <f>P2/(L2*24)</f>
-        <v>25.576901216450334</v>
+        <v>25.053761196034962</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="M3" s="3">
         <f>L3/$L$4</f>
-        <v>0.51319120678568086</v>
+        <v>0.50802715778147978</v>
       </c>
       <c r="N3" s="5">
         <f>$N$4*M3</f>
-        <v>1026.3824135713617</v>
+        <v>1016.0543155629596</v>
       </c>
       <c r="P3" s="5">
         <v>1000</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(L2:L3)</f>
-        <v>3.3464351851771221</v>
+        <v>3.3804513888798988</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5">
@@ -4617,7 +4617,7 @@
         <v>44494.434583333335</v>
       </c>
       <c r="C32" s="2">
-        <f>B32-A32</f>
+        <f t="shared" ref="C32:C39" si="1">B32-A32</f>
         <v>5.5439814816054422E-2</v>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
         <v>44494.50509259259</v>
       </c>
       <c r="C33" s="2">
-        <f>B33-A33</f>
+        <f t="shared" si="1"/>
         <v>3.2453703701321501E-2</v>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
         <v>44494.749016203707</v>
       </c>
       <c r="C34" s="2">
-        <f>B34-A34</f>
+        <f t="shared" si="1"/>
         <v>0.166643518517958</v>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
         <v>44494.926562499997</v>
       </c>
       <c r="C35" s="2">
-        <f>B35-A35</f>
+        <f t="shared" si="1"/>
         <v>0.15877314814861165</v>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
         <v>44495.350787037038</v>
       </c>
       <c r="C36" s="2">
-        <f>B36-A36</f>
+        <f t="shared" si="1"/>
         <v>4.1747685187146999E-2</v>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
         <v>44495.417361111111</v>
       </c>
       <c r="C37" s="2">
-        <f>B37-A37</f>
+        <f t="shared" si="1"/>
         <v>4.224537037225673E-2</v>
       </c>
     </row>
@@ -4689,8 +4689,20 @@
         <v>44495.504884259259</v>
       </c>
       <c r="C38" s="2">
-        <f>B38-A38</f>
+        <f t="shared" si="1"/>
         <v>3.0289351852843538E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44495.550243055557</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44495.58425925926</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4016203702776693E-2</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\phoenix-write\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35258F5-5A40-4CA1-93B0-13EC54E88DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A532441-8FF6-4CD3-8292-D701E45A45C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
